--- a/Challenge/Handons3/Original_testcases.xlsx
+++ b/Challenge/Handons3/Original_testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptdung6\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\aicodex3\Challenge\Handons3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF99639-A80F-4F93-B327-DE8F13F808E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9797C3AA-B8D0-4EB5-BC6F-37B01A25E99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -518,13 +518,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -811,18 +811,18 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="101" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -836,8 +836,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -850,8 +850,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -862,8 +862,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +874,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -888,8 +888,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
       <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
@@ -900,8 +900,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
       <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
@@ -912,8 +912,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -926,8 +926,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -940,8 +940,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -952,8 +952,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
@@ -964,8 +964,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -978,8 +978,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
@@ -990,8 +990,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1002,8 +1002,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -1016,8 +1016,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
@@ -1028,8 +1028,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1042,8 +1042,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
       <c r="B18" s="8" t="s">
         <v>59</v>
       </c>
@@ -1054,8 +1054,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1068,8 +1068,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1082,8 +1082,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1111,6 +1111,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100681CF730FF20D64DAD9F38CA03F5BBB4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13b94565f976ead089dc09d45b24e5cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49b25aeb-eafa-4933-a6be-d8a454b61289" xmlns:ns3="079e401b-4e24-443d-8bd4-79d54b33463c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6c907c76d28e45cc5e26323ddfafb7dc" ns2:_="" ns3:_="">
     <xsd:import namespace="49b25aeb-eafa-4933-a6be-d8a454b61289"/>
@@ -1311,15 +1320,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1332,13 +1332,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D73AAE4-FBE6-436F-BF95-CBC4B63A8098}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAEB0D33-BD2A-44D8-BEFA-1BBAE2D66A84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAEB0D33-BD2A-44D8-BEFA-1BBAE2D66A84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D73AAE4-FBE6-436F-BF95-CBC4B63A8098}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49b25aeb-eafa-4933-a6be-d8a454b61289"/>
+    <ds:schemaRef ds:uri="079e401b-4e24-443d-8bd4-79d54b33463c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4599CE87-2114-4DC9-A148-36ABE9948392}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4599CE87-2114-4DC9-A148-36ABE9948392}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="079e401b-4e24-443d-8bd4-79d54b33463c"/>
+    <ds:schemaRef ds:uri="49b25aeb-eafa-4933-a6be-d8a454b61289"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>